--- a/biology/Zoologie/Helix_melanostoma/Helix_melanostoma.xlsx
+++ b/biology/Zoologie/Helix_melanostoma/Helix_melanostoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hélice tapada, dont le nom scientifique est Helix melanostoma, est une espèce d'escargots proche de l'Escargot de Bourgogne (Helix pomatia) et du Petit-gris (Helix aspersa aspersa).
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est facilement confondu avec 
-le Petit-gris (Helix aspersa aspersa), dont la coquille n'a pas d'ouverture sombre[1],
-l'Otala de Catalogne (Otala punctata, lequel a une ouverture sombre, mais avec une coquille aplatie et moins épaisse)[1].</t>
+le Petit-gris (Helix aspersa aspersa), dont la coquille n'a pas d'ouverture sombre,
+l'Otala de Catalogne (Otala punctata, lequel a une ouverture sombre, mais avec une coquille aplatie et moins épaisse).</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est localement commune en pourtour de la Méditerranée, mais sa répartition exacte en France n'est pas encore connue. Il fait pour cette raison l'objet (fin des années 2000), avec trois autres espèces méditerranéennes (dont Helice peson) d'une enquête « interactive » dans le cadre d'un dispositif de type Science citoyenne, dit Caracol initié et piloté par l'ONEM [2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est localement commune en pourtour de la Méditerranée, mais sa répartition exacte en France n'est pas encore connue. Il fait pour cette raison l'objet (fin des années 2000), avec trois autres espèces méditerranéennes (dont Helice peson) d'une enquête « interactive » dans le cadre d'un dispositif de type Science citoyenne, dit Caracol initié et piloté par l'ONEM .
 </t>
         </is>
       </c>
